--- a/CIM.API/ProductionPlan/Production_order_ex_1.xlsx
+++ b/CIM.API/ProductionPlan/Production_order_ex_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PSEC\Dole\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D7211F1-3ED2-4C62-9725-1AF613E21696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EFADC4-D6DF-44B9-A72E-B3FD2AC0C3BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9C533BD-FF4B-45D9-98A0-2812B207A9B9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="117">
   <si>
     <t>แพ็คแพลนสายการผลิตประจำวัน  แผนกถ้วยพลาสติก</t>
   </si>
@@ -416,6 +416,15 @@
   <si>
     <t>04407</t>
   </si>
+  <si>
+    <t>หน่วย</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>SL5.RT.BR10</t>
+  </si>
 </sst>
 </file>
 
@@ -424,7 +433,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;฿&quot;* #,##0.00_-;\-&quot;฿&quot;* #,##0.00_-;_-&quot;฿&quot;* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +516,12 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -641,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -811,6 +826,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1159,152 +1178,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1977C13E-0F42-49AF-AD3C-392B4ED7F30C}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.21875" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="122.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="88.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="24.88671875" customWidth="1"/>
-    <col min="17" max="17" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="122.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="24.88671875" customWidth="1"/>
+    <col min="19" max="19" width="21.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
     </row>
-    <row r="2" spans="1:17" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="8"/>
+      <c r="N2" s="5"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="5"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:17" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+    <row r="3" spans="1:19" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="F3" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="G3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="H3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="I3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69" t="s">
+      <c r="J3" s="69"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="N3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="59" t="s">
+      <c r="O3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="59" t="s">
+      <c r="P3" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q3" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="P3" s="59" t="s">
+      <c r="R3" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="Q3" s="61" t="s">
+      <c r="S3" s="63" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="10" t="s">
+    <row r="4" spans="1:19" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="62"/>
       <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="64"/>
     </row>
-    <row r="5" spans="1:17" ht="159" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="159" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
@@ -1314,50 +1343,56 @@
       <c r="C5" s="13">
         <v>1</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="I5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="L5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="M5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="12">
+      <c r="N5" s="12">
         <v>4</v>
       </c>
-      <c r="N5" s="20">
+      <c r="O5" s="20">
         <v>10</v>
       </c>
-      <c r="O5" s="51">
+      <c r="P5" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q5" s="51">
         <f ca="1">TODAY()-2</f>
-        <v>43934</v>
-      </c>
-      <c r="P5" s="51">
+        <v>43935</v>
+      </c>
+      <c r="R5" s="51">
         <f ca="1">TODAY()-1</f>
-        <v>43935</v>
-      </c>
-      <c r="Q5" s="21"/>
+        <v>43936</v>
+      </c>
+      <c r="S5" s="21"/>
     </row>
-    <row r="6" spans="1:17" ht="117.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="117.6" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="24">
         <v>3</v>
@@ -1365,50 +1400,56 @@
       <c r="C6" s="13">
         <v>2</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="F6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="G6" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="H6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="I6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="J6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="K6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="L6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="M6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="34">
+      <c r="N6" s="34">
         <v>4</v>
       </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="51">
-        <f t="shared" ref="O6:O19" ca="1" si="0">TODAY()-2</f>
-        <v>43934</v>
-      </c>
-      <c r="P6" s="51">
-        <f t="shared" ref="P6:P19" ca="1" si="1">TODAY()+5</f>
-        <v>43941</v>
-      </c>
-      <c r="Q6" s="38" t="s">
+      <c r="O6" s="37"/>
+      <c r="P6" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q6" s="51">
+        <f t="shared" ref="Q6:Q19" ca="1" si="0">TODAY()-2</f>
+        <v>43935</v>
+      </c>
+      <c r="R6" s="51">
+        <f t="shared" ref="R6:R18" ca="1" si="1">TODAY()+5</f>
+        <v>43942</v>
+      </c>
+      <c r="S6" s="38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="127.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="127.2" x14ac:dyDescent="0.3">
       <c r="A7" s="39"/>
       <c r="B7" s="14">
         <v>3</v>
@@ -1416,48 +1457,54 @@
       <c r="C7" s="13">
         <v>3</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="H7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="I7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="K7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="L7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="M7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="12">
         <v>4</v>
       </c>
-      <c r="N7" s="40"/>
-      <c r="O7" s="51">
+      <c r="O7" s="40"/>
+      <c r="P7" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>43934</v>
-      </c>
-      <c r="P7" s="51">
+        <v>43935</v>
+      </c>
+      <c r="R7" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>43941</v>
-      </c>
-      <c r="Q7" s="21"/>
+        <v>43942</v>
+      </c>
+      <c r="S7" s="21"/>
     </row>
-    <row r="8" spans="1:17" ht="159" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="159" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>38</v>
       </c>
@@ -1467,50 +1514,56 @@
       <c r="C8" s="13">
         <v>4</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="F8" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="H8" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="I8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="J8" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="K8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="L8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="M8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="12">
+      <c r="N8" s="12">
         <v>2</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="51">
+      <c r="O8" s="40"/>
+      <c r="P8" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q8" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>43934</v>
-      </c>
-      <c r="P8" s="51">
+        <v>43935</v>
+      </c>
+      <c r="R8" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>43941</v>
-      </c>
-      <c r="Q8" s="22" t="s">
+        <v>43942</v>
+      </c>
+      <c r="S8" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>48</v>
       </c>
@@ -1518,28 +1571,34 @@
       <c r="C9" s="13">
         <v>5</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="32"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="51">
+      <c r="N9" s="12"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q9" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>43934</v>
-      </c>
-      <c r="P9" s="51">
+        <v>43935</v>
+      </c>
+      <c r="R9" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>43941</v>
-      </c>
-      <c r="Q9" s="21"/>
+        <v>43942</v>
+      </c>
+      <c r="S9" s="21"/>
     </row>
-    <row r="10" spans="1:17" ht="190.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="190.8" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>49</v>
       </c>
@@ -1549,52 +1608,58 @@
       <c r="C10" s="13">
         <v>6</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="H10" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="I10" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="J10" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="K10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="L10" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="M10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="12">
+      <c r="N10" s="12">
         <v>1</v>
       </c>
-      <c r="N10" s="57">
+      <c r="O10" s="57">
         <v>4550</v>
       </c>
-      <c r="O10" s="51">
+      <c r="P10" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q10" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>43934</v>
-      </c>
-      <c r="P10" s="51">
+        <v>43935</v>
+      </c>
+      <c r="R10" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>43941</v>
-      </c>
-      <c r="Q10" s="22" t="s">
+        <v>43942</v>
+      </c>
+      <c r="S10" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="127.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="127.2" x14ac:dyDescent="0.3">
       <c r="A11" s="42"/>
       <c r="B11" s="14" t="s">
         <v>50</v>
@@ -1602,50 +1667,56 @@
       <c r="C11" s="13">
         <v>7</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="H11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="I11" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="J11" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="K11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="L11" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="M11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="12">
+      <c r="N11" s="12">
         <v>1</v>
       </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="51">
+      <c r="O11" s="40"/>
+      <c r="P11" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q11" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>43934</v>
-      </c>
-      <c r="P11" s="51">
+        <v>43935</v>
+      </c>
+      <c r="R11" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>43941</v>
-      </c>
-      <c r="Q11" s="22" t="s">
+        <v>43942</v>
+      </c>
+      <c r="S11" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="190.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="190.8" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>61</v>
       </c>
@@ -1655,50 +1726,56 @@
       <c r="C12" s="13">
         <v>8</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="F12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="H12" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="I12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="J12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="K12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="L12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="12">
+      <c r="M12" s="12">
         <v>10</v>
       </c>
-      <c r="M12" s="12">
+      <c r="N12" s="12">
         <v>2</v>
       </c>
-      <c r="N12" s="40"/>
-      <c r="O12" s="51">
+      <c r="O12" s="40"/>
+      <c r="P12" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q12" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>43934</v>
-      </c>
-      <c r="P12" s="51">
+        <v>43935</v>
+      </c>
+      <c r="R12" s="51">
         <f ca="1">TODAY()-2</f>
-        <v>43934</v>
-      </c>
-      <c r="Q12" s="29" t="s">
+        <v>43935</v>
+      </c>
+      <c r="S12" s="29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
         <v>66</v>
       </c>
@@ -1708,50 +1785,56 @@
       <c r="C13" s="13">
         <v>9</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="H13" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="I13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="J13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="K13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="L13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="M13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="12">
+      <c r="N13" s="12">
         <v>4</v>
       </c>
-      <c r="N13" s="40"/>
-      <c r="O13" s="51">
+      <c r="O13" s="40"/>
+      <c r="P13" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q13" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>43934</v>
-      </c>
-      <c r="P13" s="51">
+        <v>43935</v>
+      </c>
+      <c r="R13" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>43941</v>
-      </c>
-      <c r="Q13" s="22" t="s">
+        <v>43942</v>
+      </c>
+      <c r="S13" s="22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="159" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="159" x14ac:dyDescent="0.3">
       <c r="A14" s="42"/>
       <c r="B14" s="14">
         <v>5</v>
@@ -1759,50 +1842,56 @@
       <c r="C14" s="13">
         <v>10</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="H14" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="I14" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="K14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="L14" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="M14" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="M14" s="12">
+      <c r="N14" s="12">
         <v>4</v>
       </c>
-      <c r="N14" s="40"/>
-      <c r="O14" s="51">
+      <c r="O14" s="40"/>
+      <c r="P14" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q14" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>43934</v>
-      </c>
-      <c r="P14" s="51">
+        <v>43935</v>
+      </c>
+      <c r="R14" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>43941</v>
-      </c>
-      <c r="Q14" s="22" t="s">
+        <v>43942</v>
+      </c>
+      <c r="S14" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="95.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="95.4" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
         <v>76</v>
       </c>
@@ -1812,50 +1901,56 @@
       <c r="C15" s="13">
         <v>11</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="F15" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="H15" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="I15" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="J15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="K15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="L15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="12">
+      <c r="M15" s="12">
         <v>8</v>
       </c>
-      <c r="M15" s="12">
+      <c r="N15" s="12">
         <v>4</v>
       </c>
-      <c r="N15" s="40"/>
-      <c r="O15" s="51">
+      <c r="O15" s="40"/>
+      <c r="P15" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q15" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>43934</v>
-      </c>
-      <c r="P15" s="51">
+        <v>43935</v>
+      </c>
+      <c r="R15" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>43941</v>
-      </c>
-      <c r="Q15" s="22" t="s">
+        <v>43942</v>
+      </c>
+      <c r="S15" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
         <v>82</v>
       </c>
@@ -1865,52 +1960,58 @@
       <c r="C16" s="13">
         <v>12</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="F16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="G16" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="H16" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="I16" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="K16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="L16" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="12">
+      <c r="M16" s="12">
         <v>9</v>
       </c>
-      <c r="M16" s="12">
+      <c r="N16" s="12">
         <v>4</v>
       </c>
-      <c r="N16" s="58">
+      <c r="O16" s="58">
         <v>5175</v>
       </c>
-      <c r="O16" s="51">
+      <c r="P16" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q16" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>43934</v>
-      </c>
-      <c r="P16" s="51">
+        <v>43935</v>
+      </c>
+      <c r="R16" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>43941</v>
-      </c>
-      <c r="Q16" s="12" t="s">
+        <v>43942</v>
+      </c>
+      <c r="S16" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="63.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="63.6" x14ac:dyDescent="0.3">
       <c r="A17" s="42"/>
       <c r="B17" s="14">
         <v>2</v>
@@ -1918,50 +2019,56 @@
       <c r="C17" s="13">
         <v>13</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="F17" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="G17" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="H17" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="I17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="J17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="K17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="L17" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="L17" s="12">
+      <c r="M17" s="12">
         <v>9</v>
       </c>
-      <c r="M17" s="12">
+      <c r="N17" s="12">
         <v>4</v>
       </c>
-      <c r="N17" s="57">
+      <c r="O17" s="57">
         <v>18107</v>
       </c>
-      <c r="O17" s="51">
+      <c r="P17" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>43934</v>
-      </c>
-      <c r="P17" s="51">
+        <v>43935</v>
+      </c>
+      <c r="R17" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>43941</v>
-      </c>
-      <c r="Q17" s="12"/>
+        <v>43942</v>
+      </c>
+      <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:17" ht="159" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="159" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
         <v>93</v>
       </c>
@@ -1971,50 +2078,56 @@
       <c r="C18" s="13">
         <v>14</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="F18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="H18" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="I18" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="J18" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="K18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="L18" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="M18" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="12">
+      <c r="N18" s="12">
         <v>2</v>
       </c>
-      <c r="N18" s="40"/>
-      <c r="O18" s="51">
+      <c r="O18" s="40"/>
+      <c r="P18" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q18" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>43934</v>
-      </c>
-      <c r="P18" s="51">
+        <v>43935</v>
+      </c>
+      <c r="R18" s="51">
         <f t="shared" ca="1" si="1"/>
-        <v>43941</v>
-      </c>
-      <c r="Q18" s="22" t="s">
+        <v>43942</v>
+      </c>
+      <c r="S18" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="286.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="286.2" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
         <v>95</v>
       </c>
@@ -2024,113 +2137,125 @@
       <c r="C19" s="13">
         <v>15</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="F19" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="G19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="H19" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="I19" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="J19" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="K19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="L19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="M19" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="M19" s="12">
+      <c r="N19" s="12">
         <v>2</v>
       </c>
-      <c r="N19" s="40"/>
-      <c r="O19" s="51">
+      <c r="O19" s="40"/>
+      <c r="P19" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q19" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>43934</v>
-      </c>
-      <c r="P19" s="51">
+        <v>43935</v>
+      </c>
+      <c r="R19" s="51">
         <f ca="1">TODAY()-1</f>
-        <v>43935</v>
-      </c>
-      <c r="Q19" s="12" t="s">
+        <v>43936</v>
+      </c>
+      <c r="S19" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="31.8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:19" ht="31.8" x14ac:dyDescent="0.5">
       <c r="A20" s="45" t="s">
         <v>97</v>
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="43"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="44"/>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
-      <c r="L20" s="43"/>
+      <c r="L20" s="44"/>
       <c r="M20" s="43"/>
-      <c r="N20" s="48"/>
+      <c r="N20" s="43"/>
       <c r="O20" s="48"/>
       <c r="P20" s="48"/>
-      <c r="Q20" s="43"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="43"/>
     </row>
-    <row r="21" spans="1:17" ht="31.8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" ht="31.8" x14ac:dyDescent="0.5">
       <c r="A21" s="49" t="s">
         <v>98</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="5"/>
+      <c r="H21" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="44"/>
       <c r="I21" s="44"/>
-      <c r="J21" s="44" t="s">
+      <c r="J21" s="44"/>
+      <c r="K21" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="K21" s="44"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="48"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="5"/>
       <c r="O21" s="48"/>
       <c r="P21" s="48"/>
-      <c r="Q21" s="5"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="P3:P4"/>
+  <mergeCells count="16">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
